--- a/testingLog - Copy.xlsx
+++ b/testingLog - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbhsschool-my.sharepoint.com/personal/brad_erskine_sbhsstudent_school_nz/Documents/2021/Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{CEC499CC-3C7D-4663-A9A9-D7D3D111FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47FD27FA-3DF8-44E9-8563-E3152D6413CE}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="8_{CEC499CC-3C7D-4663-A9A9-D7D3D111FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ABF125B-AF19-4824-83EA-880C3ECD74C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
+    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>What is being tested</t>
   </si>
@@ -82,6 +82,66 @@
   </si>
   <si>
     <t>When game is active and player clicks on tile a tower menu will pop up and when player selects a tower will make purchace quit menu and create new tower. Same thing will happen when cliking on tower execpt for upgrades</t>
+  </si>
+  <si>
+    <t>Restarting game</t>
+  </si>
+  <si>
+    <t>R key</t>
+  </si>
+  <si>
+    <t>Will restart game to the difficutly selection</t>
+  </si>
+  <si>
+    <t>Restars the game and loads the difficulty screen</t>
+  </si>
+  <si>
+    <t>Targeting</t>
+  </si>
+  <si>
+    <t>Mouse click</t>
+  </si>
+  <si>
+    <t>When the player clicks on arrows in tower menu will change the targeting of the towers.. Between strong last and first</t>
+  </si>
+  <si>
+    <t>When the player clicks on arrows in tower menu it changes the targeting of the towers.. Between strong last and first</t>
+  </si>
+  <si>
+    <t>Collision Projectiles Circles</t>
+  </si>
+  <si>
+    <t>Toewrs been created</t>
+  </si>
+  <si>
+    <t>When a projectile with a peirce of 0 htis a projectile will dlea damage based of its pop power and delte projectile. If perice is more than zero will decrease it by one</t>
+  </si>
+  <si>
+    <t>Works perfectly the hitbox as when any conrer or side of trangle is on or equal point to any part of the circle will activate and perice gos down by 1;</t>
+  </si>
+  <si>
+    <t>Moabs popping</t>
+  </si>
+  <si>
+    <t>Hit by projectiels</t>
+  </si>
+  <si>
+    <t>When a blimp or ceramic which has health takes damge if the health is 1 or more will stay alvie but if health I 0 or less will pop</t>
+  </si>
+  <si>
+    <t>When a cermaics or moabs health is taken down below 1 it pops</t>
+  </si>
+  <si>
+    <t>Name entries</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Will not allow player to enter if they have not typed a nick name consting of only numbers and letters with a minium requirement of 3 otherwise says to make name longer</t>
+  </si>
+  <si>
+    <t>Will not allow player to enter if they have not typed a nick name consting of only numbers and letters with a minium requirement of 3 otherwise gives payer message</t>
   </si>
 </sst>
 </file>
@@ -485,7 +545,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -573,38 +633,78 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+    <row r="8" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="9" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+    <row r="10" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,6 +798,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC549031AE2EE645AE8308B2C81476B4" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39b98946aa211e90bd2a8ab94fc18abb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8391d51e-fdca-4f9f-9876-364cd39e1bf7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9ade0a54ad0048e31f6e581a50e589" ns2:_="">
     <xsd:import namespace="8391d51e-fdca-4f9f-9876-364cd39e1bf7"/>
@@ -867,15 +976,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -885,6 +985,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8197D9D4-AFA3-4598-A8A4-03B5846ED198}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -902,14 +1010,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49705E9F-1DBC-44ED-AB34-BAD166CF391C}">
   <ds:schemaRefs>
